--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_speed_coherence.xlsx
@@ -497,37 +497,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.313314914703369</v>
+        <v>8.846881866455078</v>
       </c>
       <c r="C2" t="n">
-        <v>3.563714265823364</v>
+        <v>12.42095756530762</v>
       </c>
       <c r="D2" t="n">
-        <v>3.748660802841187</v>
+        <v>7.295046329498291</v>
       </c>
       <c r="E2" t="n">
-        <v>3.865230798721313</v>
+        <v>6.022216320037842</v>
       </c>
       <c r="F2" t="n">
-        <v>3.96641206741333</v>
+        <v>6.642043113708496</v>
       </c>
       <c r="G2" t="n">
-        <v>3.72880744934082</v>
+        <v>6.413159847259521</v>
       </c>
       <c r="H2" t="n">
-        <v>3.892115354537964</v>
+        <v>6.818876266479492</v>
       </c>
       <c r="I2" t="n">
-        <v>4.197500228881836</v>
+        <v>6.221681118011475</v>
       </c>
       <c r="J2" t="n">
-        <v>3.182381153106689</v>
+        <v>8.763750076293945</v>
       </c>
       <c r="K2" t="n">
-        <v>4.099999904632568</v>
+        <v>5.994359016418457</v>
       </c>
       <c r="L2" t="n">
-        <v>4.146363735198975</v>
+        <v>5.206000328063965</v>
       </c>
     </row>
     <row r="3">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8264033715369293</v>
+        <v>0.9004453420639038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8143049401896341</v>
+        <v>0.9564799842426588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8551704074655261</v>
+        <v>0.9116515290627282</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7970895024446341</v>
+        <v>0.8763265172866258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8616040549205459</v>
+        <v>0.9139057041069085</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8553791068015842</v>
+        <v>0.8709934298433779</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8722448154137685</v>
+        <v>0.9080480059211173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8082607053220272</v>
+        <v>0.8993279939204191</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7759331294468471</v>
+        <v>0.9253138922154903</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9111156463623047</v>
+        <v>0.9175444505153558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7784096815369346</v>
+        <v>0.822425385316213</v>
       </c>
     </row>
   </sheetData>
